--- a/rnn/data/han/수질/가평천3_2016.xlsx
+++ b/rnn/data/han/수질/가평천3_2016.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality-main\water-quality-main\gain_new3\han\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="172">
   <si>
     <t>dt</t>
   </si>
@@ -533,25 +540,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,7 +585,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -577,17 +599,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -596,10 +626,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -845,83 +875,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.71" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.86" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.71" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.57" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.43" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1185,8 +1211,59 @@
       <c r="AB2" t="s">
         <v>75</v>
       </c>
+      <c r="AC2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2.875</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="AG2">
+        <v>131</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1263,7 +1340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1355,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="AH4" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI4" s="6">
         <v>1.5</v>
@@ -1367,28 +1444,28 @@
         <v>3.0950000000000002</v>
       </c>
       <c r="AL4" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AN4" s="6">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AO4" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AP4" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ4" s="5">
         <v>2.9649999999999999</v>
       </c>
       <c r="AR4" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1465,7 +1542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1542,7 +1619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1619,7 +1696,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1696,7 +1773,7 @@
         <v>90</v>
       </c>
       <c r="AC8" s="5">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD8" s="5">
         <v>2.907</v>
@@ -1711,43 +1788,43 @@
         <v>100</v>
       </c>
       <c r="AH8" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI8" s="6">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ8" s="6">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AK8" s="5">
         <v>3.544</v>
       </c>
       <c r="AL8" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AM8" s="5">
         <v>3.3610000000000002</v>
       </c>
       <c r="AN8" s="6">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AO8" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="AP8" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ8" s="5">
         <v>3.2050000000000001</v>
       </c>
       <c r="AR8" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS8" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1824,7 +1901,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1901,13 +1978,13 @@
         <v>94</v>
       </c>
       <c r="AC10" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD10" s="5">
         <v>2.6949999999999998</v>
       </c>
       <c r="AE10" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF10" s="6">
         <v>2.2000000000000002</v>
@@ -1916,40 +1993,40 @@
         <v>116</v>
       </c>
       <c r="AH10" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI10" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AJ10" s="6">
-        <v>13.699999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="AK10" s="5">
         <v>2.9409999999999998</v>
       </c>
       <c r="AL10" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM10" s="5">
         <v>1.597</v>
       </c>
       <c r="AN10" s="6">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AP10" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ10" s="5">
         <v>2.9060000000000001</v>
       </c>
       <c r="AR10" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AS10" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2026,13 +2103,13 @@
         <v>96</v>
       </c>
       <c r="AC11" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD11" s="5">
         <v>2.754</v>
       </c>
       <c r="AE11" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF11" s="6">
         <v>1.8</v>
@@ -2041,40 +2118,40 @@
         <v>89</v>
       </c>
       <c r="AH11" s="6">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI11" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AJ11" s="6">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK11" s="4">
         <v>2.98</v>
       </c>
       <c r="AL11" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM11" s="5">
         <v>6.218</v>
       </c>
       <c r="AN11" s="6">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AP11" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ11" s="5">
         <v>2.9649999999999999</v>
       </c>
       <c r="AR11" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS11" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2151,34 +2228,34 @@
         <v>98</v>
       </c>
       <c r="AC12" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD12" s="5">
         <v>1.845</v>
       </c>
       <c r="AE12" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF12" s="6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG12">
         <v>96</v>
       </c>
       <c r="AH12" s="6">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI12" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AJ12" s="6">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AK12" s="5">
         <v>2.8090000000000002</v>
       </c>
       <c r="AL12" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM12" s="5">
         <v>3.891</v>
@@ -2187,22 +2264,22 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AO12" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AP12" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ12" s="5">
         <v>2.7749999999999999</v>
       </c>
       <c r="AR12" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="AC13" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD13" s="5">
         <v>2.2759999999999998</v>
@@ -2294,10 +2371,10 @@
         <v>96</v>
       </c>
       <c r="AH13" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI13" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ13" s="6">
         <v>11.6</v>
@@ -2306,7 +2383,7 @@
         <v>2.3980000000000001</v>
       </c>
       <c r="AL13" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM13" s="5">
         <v>3.6869999999999998</v>
@@ -2315,19 +2392,19 @@
         <v>12.4</v>
       </c>
       <c r="AP13" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ13" s="5">
         <v>2.3730000000000002</v>
       </c>
       <c r="AR13" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS13" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2404,7 +2481,7 @@
         <v>103</v>
       </c>
       <c r="AC14" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD14" s="5">
         <v>2.2730000000000001</v>
@@ -2419,10 +2496,10 @@
         <v>96</v>
       </c>
       <c r="AH14" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI14" s="6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AJ14" s="6">
         <v>12.1</v>
@@ -2431,7 +2508,7 @@
         <v>2.3530000000000002</v>
       </c>
       <c r="AL14" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM14" s="5">
         <v>2.883</v>
@@ -2446,13 +2523,13 @@
         <v>2.3490000000000002</v>
       </c>
       <c r="AR14" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS14" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2529,7 +2606,7 @@
         <v>105</v>
       </c>
       <c r="AC15" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD15" s="5">
         <v>1.663</v>
@@ -2544,10 +2621,10 @@
         <v>97</v>
       </c>
       <c r="AH15" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI15" s="6">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AJ15">
         <v>12</v>
@@ -2562,7 +2639,7 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="AN15" s="6">
-        <v>14.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -2571,13 +2648,13 @@
         <v>2.3069999999999999</v>
       </c>
       <c r="AR15" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS15" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2654,7 +2731,7 @@
         <v>107</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD16" s="5">
         <v>1.9119999999999999</v>
@@ -2669,7 +2746,7 @@
         <v>94</v>
       </c>
       <c r="AH16" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI16" s="6">
         <v>2.5</v>
@@ -2681,7 +2758,7 @@
         <v>2.488</v>
       </c>
       <c r="AL16" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM16" s="5">
         <v>2.746</v>
@@ -2693,19 +2770,19 @@
         <v>2</v>
       </c>
       <c r="AP16" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ16" s="5">
         <v>2.3969999999999998</v>
       </c>
       <c r="AR16" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS16" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2782,13 +2859,13 @@
         <v>109</v>
       </c>
       <c r="AC17" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD17" s="5">
         <v>2.2170000000000001</v>
       </c>
       <c r="AE17" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF17" s="6">
         <v>2.2000000000000002</v>
@@ -2797,7 +2874,7 @@
         <v>77</v>
       </c>
       <c r="AH17" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI17" s="6">
         <v>1.7</v>
@@ -2809,28 +2886,28 @@
         <v>2.4649999999999999</v>
       </c>
       <c r="AL17" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM17" s="5">
         <v>10.996</v>
       </c>
       <c r="AN17" s="6">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AP17" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ17" s="5">
         <v>2.4119999999999999</v>
       </c>
       <c r="AR17" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS17" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2907,13 +2984,13 @@
         <v>111</v>
       </c>
       <c r="AC18" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD18" s="5">
         <v>2.2280000000000002</v>
       </c>
       <c r="AE18" s="6">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF18" s="6">
         <v>2.2000000000000002</v>
@@ -2922,19 +2999,19 @@
         <v>90</v>
       </c>
       <c r="AH18" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI18" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="AJ18" s="6">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AK18" s="5">
         <v>2.3029999999999999</v>
       </c>
       <c r="AL18" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM18" s="5">
         <v>3.8290000000000002</v>
@@ -2943,19 +3020,19 @@
         <v>18.100000000000001</v>
       </c>
       <c r="AP18" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ18" s="5">
         <v>2.2930000000000001</v>
       </c>
       <c r="AR18" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3032,13 +3109,13 @@
         <v>113</v>
       </c>
       <c r="AC19" s="5">
-        <v>0.048000000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AD19" s="4">
         <v>1.97</v>
       </c>
       <c r="AE19" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF19" s="6">
         <v>4.9000000000000004</v>
@@ -3059,28 +3136,28 @@
         <v>2.2730000000000001</v>
       </c>
       <c r="AL19" s="5">
-        <v>0.043999999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AM19" s="5">
         <v>62.087000000000003</v>
       </c>
       <c r="AN19" s="6">
-        <v>16.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="AP19" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ19" s="5">
         <v>2.137</v>
       </c>
       <c r="AR19" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS19" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -3157,7 +3234,7 @@
         <v>115</v>
       </c>
       <c r="AC20" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD20" s="5">
         <v>2.157</v>
@@ -3172,7 +3249,7 @@
         <v>92</v>
       </c>
       <c r="AH20" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI20" s="6">
         <v>4.4000000000000004</v>
@@ -3184,28 +3261,28 @@
         <v>2.427</v>
       </c>
       <c r="AL20" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM20" s="5">
         <v>5.5789999999999997</v>
       </c>
       <c r="AN20" s="6">
-        <v>19.300000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="AP20" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="5">
         <v>2.4119999999999999</v>
       </c>
       <c r="AR20" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS20" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -3282,16 +3359,16 @@
         <v>117</v>
       </c>
       <c r="AC21" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD21" s="5">
         <v>1.903</v>
       </c>
       <c r="AE21" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF21" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG21">
         <v>67</v>
@@ -3300,16 +3377,16 @@
         <v>0.5</v>
       </c>
       <c r="AI21" s="6">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AJ21" s="6">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AK21" s="5">
         <v>1.9990000000000001</v>
       </c>
       <c r="AL21" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM21" s="5">
         <v>8.2750000000000004</v>
@@ -3327,13 +3404,13 @@
         <v>1.9810000000000001</v>
       </c>
       <c r="AR21" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS21">
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -3410,7 +3487,7 @@
         <v>119</v>
       </c>
       <c r="AC22" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD22" s="5">
         <v>1.629</v>
@@ -3425,7 +3502,7 @@
         <v>85</v>
       </c>
       <c r="AH22" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI22">
         <v>3</v>
@@ -3437,7 +3514,7 @@
         <v>1.9650000000000001</v>
       </c>
       <c r="AL22" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM22" s="5">
         <v>6.4020000000000001</v>
@@ -3446,19 +3523,19 @@
         <v>20.399999999999999</v>
       </c>
       <c r="AP22" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ22" s="5">
         <v>1.9419999999999999</v>
       </c>
       <c r="AR22" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AS22" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -3535,16 +3612,16 @@
         <v>121</v>
       </c>
       <c r="AC23" s="5">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AD23" s="4">
-        <v>1.9099999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="AE23" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF23" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AG23">
         <v>105</v>
@@ -3562,7 +3639,7 @@
         <v>2.0710000000000002</v>
       </c>
       <c r="AL23" s="5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM23" s="5">
         <v>1.877</v>
@@ -3571,19 +3648,19 @@
         <v>25</v>
       </c>
       <c r="AP23" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ23" s="5">
         <v>2.056</v>
       </c>
       <c r="AR23" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS23" s="6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3660,16 +3737,16 @@
         <v>123</v>
       </c>
       <c r="AC24" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD24" s="5">
         <v>1.724</v>
       </c>
       <c r="AE24" s="6">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF24" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG24">
         <v>126</v>
@@ -3678,7 +3755,7 @@
         <v>1.3</v>
       </c>
       <c r="AI24" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AJ24" s="6">
         <v>10.4</v>
@@ -3687,28 +3764,28 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="AL24" s="5">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AM24" s="5">
         <v>0.96099999999999997</v>
       </c>
       <c r="AN24" s="6">
-        <v>26.399999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="AP24" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ24" s="5">
         <v>1.984</v>
       </c>
       <c r="AR24" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS24">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -3785,13 +3862,13 @@
         <v>125</v>
       </c>
       <c r="AC25" s="5">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD25" s="5">
         <v>1.5189999999999999</v>
       </c>
       <c r="AE25" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF25" s="6">
         <v>3.5</v>
@@ -3812,19 +3889,19 @@
         <v>1.8939999999999999</v>
       </c>
       <c r="AL25" s="5">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM25" s="5">
         <v>1.661</v>
       </c>
       <c r="AN25" s="6">
-        <v>23.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="AO25" s="6">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="AP25" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ25" s="5">
         <v>1.877</v>
@@ -3836,7 +3913,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -3913,7 +3990,7 @@
         <v>127</v>
       </c>
       <c r="AC26" s="5">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD26" s="5">
         <v>1.157</v>
@@ -3922,7 +3999,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF26" s="6">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG26">
         <v>147</v>
@@ -3934,34 +4011,34 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="6">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AK26" s="5">
         <v>1.5489999999999999</v>
       </c>
       <c r="AL26" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AM26" s="4">
-        <v>0.58999999999999997</v>
+        <v>0.59</v>
       </c>
       <c r="AN26" s="6">
         <v>26.5</v>
       </c>
       <c r="AP26" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ26" s="5">
         <v>1.5149999999999999</v>
       </c>
       <c r="AR26" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS26" s="6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -4038,7 +4115,7 @@
         <v>129</v>
       </c>
       <c r="AC27" s="5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD27" s="5">
         <v>0.98899999999999999</v>
@@ -4047,16 +4124,16 @@
         <v>8.5</v>
       </c>
       <c r="AF27" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG27">
         <v>150</v>
       </c>
       <c r="AH27" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI27" s="6">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ27" s="6">
         <v>10.6</v>
@@ -4065,7 +4142,7 @@
         <v>1.2929999999999999</v>
       </c>
       <c r="AL27" s="5">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AM27" s="5">
         <v>0.49199999999999999</v>
@@ -4074,7 +4151,7 @@
         <v>28.5</v>
       </c>
       <c r="AP27" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ27" s="5">
         <v>1.246</v>
@@ -4083,10 +4160,10 @@
         <v>0.01</v>
       </c>
       <c r="AS27" s="6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -4163,7 +4240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -4240,7 +4317,7 @@
         <v>133</v>
       </c>
       <c r="AC29" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD29" s="5">
         <v>2.262</v>
@@ -4255,10 +4332,10 @@
         <v>118</v>
       </c>
       <c r="AH29" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI29" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AJ29">
         <v>10</v>
@@ -4267,7 +4344,7 @@
         <v>2.4489999999999998</v>
       </c>
       <c r="AL29" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM29" s="5">
         <v>4.8150000000000004</v>
@@ -4276,22 +4353,22 @@
         <v>27</v>
       </c>
       <c r="AO29" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AP29" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ29" s="5">
         <v>2.4470000000000001</v>
       </c>
       <c r="AR29" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS29" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -4368,40 +4445,40 @@
         <v>135</v>
       </c>
       <c r="AC30" s="5">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AD30" s="5">
         <v>1.2090000000000001</v>
       </c>
       <c r="AE30" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF30" s="6">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG30">
         <v>73</v>
       </c>
       <c r="AH30" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI30" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AJ30" s="6">
-        <v>10.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="AK30" s="5">
         <v>1.4670000000000001</v>
       </c>
       <c r="AL30" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AM30" s="5">
         <v>16.283000000000001</v>
       </c>
       <c r="AN30" s="6">
-        <v>22.899999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -4410,13 +4487,13 @@
         <v>1.399</v>
       </c>
       <c r="AR30" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS30" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -4496,7 +4573,7 @@
         <v>18.983000000000001</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -4573,16 +4650,16 @@
         <v>139</v>
       </c>
       <c r="AC32" s="5">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AD32" s="5">
         <v>1.405</v>
       </c>
       <c r="AE32" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF32" s="6">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG32">
         <v>113</v>
@@ -4591,37 +4668,37 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI32" s="6">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AJ32" s="6">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AK32" s="4">
-        <v>1.6399999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="AL32" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM32" s="5">
         <v>2.8620000000000001</v>
       </c>
       <c r="AN32" s="6">
-        <v>29.399999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="AP32" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ32" s="5">
         <v>1.6359999999999999</v>
       </c>
       <c r="AR32" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS32" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4698,16 +4775,16 @@
         <v>141</v>
       </c>
       <c r="AC33" s="5">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD33" s="5">
         <v>1.2929999999999999</v>
       </c>
       <c r="AE33" s="6">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF33" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG33">
         <v>137</v>
@@ -4716,40 +4793,40 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI33" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AJ33" s="6">
         <v>10.1</v>
       </c>
       <c r="AK33" s="4">
-        <v>1.6399999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="AL33" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM33" s="5">
         <v>1.349</v>
       </c>
       <c r="AN33" s="6">
-        <v>31.100000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="AO33">
         <v>4</v>
       </c>
       <c r="AP33" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AQ33" s="5">
         <v>1.6379999999999999</v>
       </c>
       <c r="AR33" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS33" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -4826,7 +4903,7 @@
         <v>143</v>
       </c>
       <c r="AC34" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AD34" s="5">
         <v>1.3540000000000001</v>
@@ -4835,13 +4912,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF34" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG34">
         <v>145</v>
       </c>
       <c r="AH34" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI34" s="6">
         <v>2.2999999999999998</v>
@@ -4853,7 +4930,7 @@
         <v>1.4530000000000001</v>
       </c>
       <c r="AL34" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AM34" s="5">
         <v>0.91100000000000003</v>
@@ -4862,7 +4939,7 @@
         <v>29.5</v>
       </c>
       <c r="AP34" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ34" s="5">
         <v>1.4330000000000001</v>
@@ -4874,7 +4951,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -4951,55 +5028,55 @@
         <v>145</v>
       </c>
       <c r="AC35" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD35" s="5">
         <v>1.131</v>
       </c>
       <c r="AE35" s="6">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF35" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG35">
         <v>134</v>
       </c>
       <c r="AH35" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI35" s="6">
         <v>1.5</v>
       </c>
       <c r="AJ35" s="6">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AK35" s="5">
         <v>1.4179999999999999</v>
       </c>
       <c r="AL35" s="5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM35" s="4">
-        <v>1.1899999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AN35" s="6">
-        <v>21.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="AP35" s="5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ35" s="5">
         <v>1.4059999999999999</v>
       </c>
       <c r="AR35" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS35" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -5076,13 +5153,13 @@
         <v>147</v>
       </c>
       <c r="AC36" s="5">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD36" s="5">
         <v>1.0369999999999999</v>
       </c>
       <c r="AE36" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF36" s="6">
         <v>2.2999999999999998</v>
@@ -5091,10 +5168,10 @@
         <v>103</v>
       </c>
       <c r="AH36" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI36" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AJ36" s="6">
         <v>9.8000000000000007</v>
@@ -5103,13 +5180,13 @@
         <v>1.167</v>
       </c>
       <c r="AL36" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM36" s="5">
         <v>2.1219999999999999</v>
       </c>
       <c r="AN36" s="6">
-        <v>24.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -5118,13 +5195,13 @@
         <v>1.1319999999999999</v>
       </c>
       <c r="AR36" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS36" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -5201,13 +5278,13 @@
         <v>149</v>
       </c>
       <c r="AC37" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD37" s="5">
         <v>0.85799999999999998</v>
       </c>
       <c r="AE37" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF37" s="6">
         <v>2.5</v>
@@ -5228,16 +5305,16 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="AL37" s="5">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM37" s="5">
         <v>0.91100000000000003</v>
       </c>
       <c r="AN37" s="6">
-        <v>23.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="AO37" s="6">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -5246,13 +5323,13 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="AR37" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS37" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -5329,13 +5406,13 @@
         <v>151</v>
       </c>
       <c r="AC38" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD38" s="4">
-        <v>0.93999999999999995</v>
+        <v>0.94</v>
       </c>
       <c r="AE38" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF38" s="6">
         <v>2.2000000000000002</v>
@@ -5344,25 +5421,25 @@
         <v>132</v>
       </c>
       <c r="AH38" s="6">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI38">
         <v>2</v>
       </c>
       <c r="AJ38" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AK38" s="5">
         <v>1.032</v>
       </c>
       <c r="AL38" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM38" s="4">
-        <v>1.1899999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AN38" s="6">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -5371,13 +5448,13 @@
         <v>1.03</v>
       </c>
       <c r="AR38" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS38" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -5454,40 +5531,40 @@
         <v>153</v>
       </c>
       <c r="AC39" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD39" s="4">
         <v>1.1200000000000001</v>
       </c>
       <c r="AE39" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF39" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG39">
         <v>91</v>
       </c>
       <c r="AH39" s="6">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI39" s="6">
         <v>1.5</v>
       </c>
       <c r="AJ39" s="6">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AK39" s="5">
         <v>1.256</v>
       </c>
       <c r="AL39" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM39" s="5">
         <v>2.5990000000000002</v>
       </c>
       <c r="AN39" s="6">
-        <v>20.300000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -5496,13 +5573,13 @@
         <v>1.2030000000000001</v>
       </c>
       <c r="AR39" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS39" s="6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -5579,13 +5656,13 @@
         <v>155</v>
       </c>
       <c r="AC40" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD40" s="5">
         <v>1.0880000000000001</v>
       </c>
       <c r="AE40" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF40" s="6">
         <v>2.2000000000000002</v>
@@ -5600,13 +5677,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AJ40" s="6">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK40" s="5">
         <v>1.161</v>
       </c>
       <c r="AL40" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM40" s="5">
         <v>1.5209999999999999</v>
@@ -5624,13 +5701,13 @@
         <v>1.155</v>
       </c>
       <c r="AR40" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS40" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -5707,7 +5784,7 @@
         <v>157</v>
       </c>
       <c r="AC41" s="5">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AD41" s="5">
         <v>1.016</v>
@@ -5716,13 +5793,13 @@
         <v>8</v>
       </c>
       <c r="AF41" s="6">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG41">
         <v>117</v>
       </c>
       <c r="AH41" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI41" s="6">
         <v>1.5</v>
@@ -5734,7 +5811,7 @@
         <v>1.1950000000000001</v>
       </c>
       <c r="AL41" s="5">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM41" s="5">
         <v>0.91100000000000003</v>
@@ -5743,19 +5820,19 @@
         <v>19.600000000000001</v>
       </c>
       <c r="AP41" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ41" s="5">
         <v>1.147</v>
       </c>
       <c r="AR41" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS41" s="6">
         <v>1.7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -5838,7 +5915,7 @@
         <v>1.177</v>
       </c>
       <c r="AE42" s="6">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF42" s="6">
         <v>2.5</v>
@@ -5847,19 +5924,19 @@
         <v>95</v>
       </c>
       <c r="AH42" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI42" s="6">
         <v>2.5</v>
       </c>
       <c r="AJ42" s="6">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK42" s="4">
         <v>1.26</v>
       </c>
       <c r="AL42" s="5">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM42" s="5">
         <v>4.0890000000000004</v>
@@ -5868,19 +5945,19 @@
         <v>14</v>
       </c>
       <c r="AP42" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ42" s="5">
         <v>1.2569999999999999</v>
       </c>
       <c r="AR42" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS42" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -5957,13 +6034,13 @@
         <v>161</v>
       </c>
       <c r="AC43" s="5">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD43" s="5">
         <v>1.2450000000000001</v>
       </c>
       <c r="AE43" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF43">
         <v>2</v>
@@ -5972,7 +6049,7 @@
         <v>141</v>
       </c>
       <c r="AH43" s="6">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI43" s="6">
         <v>1.3</v>
@@ -5984,28 +6061,28 @@
         <v>1.446</v>
       </c>
       <c r="AL43" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM43" s="5">
         <v>1.349</v>
       </c>
       <c r="AN43" s="6">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AP43" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ43" s="5">
         <v>1.429</v>
       </c>
       <c r="AR43" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS43" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -6082,16 +6159,16 @@
         <v>163</v>
       </c>
       <c r="AC44" s="5">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD44" s="5">
         <v>1.3720000000000001</v>
       </c>
       <c r="AE44" s="6">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF44" s="6">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG44">
         <v>136</v>
@@ -6100,40 +6177,40 @@
         <v>0.5</v>
       </c>
       <c r="AI44" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AJ44" s="6">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AK44" s="4">
-        <v>1.3899999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AL44" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM44" s="5">
         <v>1.349</v>
       </c>
       <c r="AN44" s="6">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AO44" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AP44" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ44" s="5">
         <v>1.3839999999999999</v>
       </c>
       <c r="AR44" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS44" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -6210,13 +6287,13 @@
         <v>165</v>
       </c>
       <c r="AC45" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD45" s="4">
         <v>1.48</v>
       </c>
       <c r="AE45" s="6">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF45" s="6">
         <v>2.2999999999999998</v>
@@ -6225,40 +6302,40 @@
         <v>106</v>
       </c>
       <c r="AH45" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI45" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AJ45" s="6">
-        <v>13.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AK45" s="5">
         <v>1.538</v>
       </c>
       <c r="AL45" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM45" s="4">
-        <v>1.1899999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AN45">
         <v>9</v>
       </c>
       <c r="AP45" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ45" s="5">
         <v>1.5269999999999999</v>
       </c>
       <c r="AR45" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS45" s="6">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -6335,25 +6412,25 @@
         <v>167</v>
       </c>
       <c r="AC46" s="5">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD46" s="5">
         <v>1.4590000000000001</v>
       </c>
       <c r="AE46" s="6">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF46" s="6">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="AG46">
         <v>98</v>
       </c>
       <c r="AH46" s="6">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI46" s="6">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AJ46" s="6">
         <v>13.4</v>
@@ -6362,28 +6439,28 @@
         <v>1.4830000000000001</v>
       </c>
       <c r="AL46" s="5">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM46" s="5">
         <v>0.91100000000000003</v>
       </c>
       <c r="AN46" s="6">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AP46" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ46" s="4">
         <v>1.48</v>
       </c>
       <c r="AR46" s="5">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS46" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -6460,13 +6537,13 @@
         <v>169</v>
       </c>
       <c r="AC47" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD47" s="5">
         <v>1.6990000000000001</v>
       </c>
       <c r="AE47" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF47" s="6">
         <v>1.8</v>
@@ -6475,43 +6552,43 @@
         <v>106</v>
       </c>
       <c r="AH47" s="6">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI47" s="6">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AJ47" s="6">
-        <v>14.800000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="AK47" s="5">
         <v>1.8340000000000001</v>
       </c>
       <c r="AL47" s="5">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AM47" s="5">
         <v>0.48899999999999999</v>
       </c>
       <c r="AN47" s="6">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AO47" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="AP47" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ47" s="5">
         <v>1.831</v>
       </c>
       <c r="AR47" s="5">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AS47" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -6588,34 +6665,34 @@
         <v>171</v>
       </c>
       <c r="AC48" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AD48" s="5">
         <v>1.706</v>
       </c>
       <c r="AE48" s="6">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF48" s="6">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AG48">
         <v>117</v>
       </c>
       <c r="AH48" s="6">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI48">
         <v>1</v>
       </c>
       <c r="AJ48" s="6">
-        <v>14.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AK48" s="5">
         <v>2.0569999999999999</v>
       </c>
       <c r="AL48" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM48" s="5">
         <v>0.40899999999999997</v>
@@ -6630,13 +6707,15 @@
         <v>2.0550000000000002</v>
       </c>
       <c r="AR48" s="5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AS48" s="6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="49"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>